--- a/MMS/Misc/Records/SnaaOOH Beta Version-Links.xlsx
+++ b/MMS/Misc/Records/SnaaOOH Beta Version-Links.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>http://54.179.76.169/beta/home</t>
   </si>
@@ -194,12 +194,15 @@
 UN:info@gmail.com Pwd:12345678
 UN::velubala17@gmail.co PWD:12345678</t>
   </si>
+  <si>
+    <t>http://192.168.1.10:8080/sptest/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -268,6 +271,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -276,7 +288,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -290,6 +302,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -297,6 +312,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,6 +395,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -409,6 +430,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,25 +606,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.28515625" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
@@ -610,7 +632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -619,7 +641,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,7 +650,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -639,7 +661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -648,7 +670,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -657,7 +679,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -666,7 +688,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -677,7 +699,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -688,7 +710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -699,7 +721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -708,7 +730,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -717,7 +739,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -726,7 +748,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -737,7 +759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -746,7 +768,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -755,7 +777,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -764,7 +786,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -773,7 +795,7 @@
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -782,7 +804,7 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -793,7 +815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -802,7 +824,7 @@
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -811,7 +833,7 @@
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -820,13 +842,13 @@
       </c>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="60">
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -834,7 +856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -842,7 +864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -850,7 +872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -858,9 +880,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -887,31 +914,32 @@
     <hyperlink ref="B22" r:id="rId20"/>
     <hyperlink ref="B23" r:id="rId21"/>
     <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B31" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
